--- a/medicine/Mort/Cimetière_communal_de_Rosny-sous-Bois/Cimetière_communal_de_Rosny-sous-Bois.xlsx
+++ b/medicine/Mort/Cimetière_communal_de_Rosny-sous-Bois/Cimetière_communal_de_Rosny-sous-Bois.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_communal_de_Rosny-sous-Bois</t>
+          <t>Cimetière_communal_de_Rosny-sous-Bois</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière communal de Rosny-sous-Bois, est un cimetière se trouvant avenue du Général-de-Gaulle à Rosny-sous-Bois[1]. C'est l'un des deux cimetières de la ville avec l'ancien cimetière de Rosny-Sous-Bois[2].
-Il a subi quelques dégradations en 2019 lors des travaux de prolongement de la ligne 11 du métro de Paris[3],[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière communal de Rosny-sous-Bois, est un cimetière se trouvant avenue du Général-de-Gaulle à Rosny-sous-Bois. C'est l'un des deux cimetières de la ville avec l'ancien cimetière de Rosny-Sous-Bois.
+Il a subi quelques dégradations en 2019 lors des travaux de prolongement de la ligne 11 du métro de Paris,.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_communal_de_Rosny-sous-Bois</t>
+          <t>Cimetière_communal_de_Rosny-sous-Bois</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Raymond Catenacci[5], Roger Petitville[6] et André Ferbach[7], tués en 1944, morts pour la France.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Raymond Catenacci, Roger Petitville et André Ferbach, tués en 1944, morts pour la France.
 Le pilote moto Michel Rougerie (1950-1981).</t>
         </is>
       </c>
